--- a/CreditCardSytsem.xlsx
+++ b/CreditCardSytsem.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAMRAN\Desktop\CureMD Bootcamp Assignments\weekend assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4850\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F1E7E1-DC30-4E4F-B085-1402D7AE2792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBF70C1-D6B2-43AB-89D1-DE08611E783D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flowchart" sheetId="1" r:id="rId1"/>
-    <sheet name="bounday balues" sheetId="4" r:id="rId2"/>
+    <sheet name="boundary balues" sheetId="4" r:id="rId2"/>
     <sheet name="Equivalence classes" sheetId="5" r:id="rId3"/>
     <sheet name="variable" sheetId="2" r:id="rId4"/>
   </sheets>
@@ -28,10 +28,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -363,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -389,6 +389,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -732,7 +735,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -743,9 +746,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F62F91C-F371-4F59-A1A6-A2256F84DB6D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -756,32 +759,32 @@
   <dimension ref="B2:F137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="25.6328125" customWidth="1"/>
+    <col min="2" max="6" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
@@ -798,7 +801,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="2:6" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -809,7 +812,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
@@ -826,7 +829,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -837,7 +840,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:6" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>2</v>
       </c>
@@ -854,7 +857,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -865,7 +868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>63</v>
       </c>
@@ -882,7 +885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -893,7 +896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>66</v>
       </c>
@@ -910,7 +913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -921,7 +924,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:6" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
@@ -938,7 +941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="2:6" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -949,7 +952,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>3</v>
       </c>
@@ -966,7 +969,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -977,7 +980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="2:6" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>4</v>
       </c>
@@ -994,7 +997,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:6" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1005,7 +1008,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>5</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1033,7 +1036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="2:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>10</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="2:6" s="3" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1061,333 +1064,333 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="2:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="2:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="2:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
     </row>
-    <row r="29" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="2:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
     </row>
-    <row r="31" spans="2:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="2:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B33" s="8"/>
     </row>
-    <row r="34" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
     </row>
-    <row r="35" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B37" s="8"/>
     </row>
-    <row r="38" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
     </row>
-    <row r="39" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
     </row>
-    <row r="40" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
     </row>
-    <row r="43" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
     </row>
-    <row r="44" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
     </row>
-    <row r="45" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
     </row>
-    <row r="46" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
     </row>
-    <row r="47" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
     </row>
-    <row r="49" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
     </row>
-    <row r="50" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
     </row>
-    <row r="51" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
     </row>
-    <row r="52" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
     </row>
-    <row r="53" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
     </row>
-    <row r="54" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
     </row>
-    <row r="55" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
     </row>
-    <row r="57" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
     </row>
-    <row r="58" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
     </row>
-    <row r="59" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
     </row>
-    <row r="61" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B61" s="8"/>
     </row>
-    <row r="62" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
     </row>
-    <row r="63" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
     </row>
-    <row r="65" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B65" s="8"/>
     </row>
-    <row r="66" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
     </row>
-    <row r="67" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
     </row>
-    <row r="68" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
     </row>
-    <row r="69" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
     </row>
-    <row r="71" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
     </row>
-    <row r="73" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B73" s="7"/>
     </row>
-    <row r="74" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7"/>
     </row>
-    <row r="75" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B75" s="8"/>
     </row>
-    <row r="76" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
     </row>
-    <row r="77" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B77" s="9"/>
     </row>
-    <row r="78" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B78" s="9"/>
     </row>
-    <row r="79" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B79" s="8"/>
     </row>
-    <row r="80" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
     </row>
-    <row r="81" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
     </row>
-    <row r="82" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
     </row>
-    <row r="83" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
     </row>
-    <row r="84" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
     </row>
-    <row r="86" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
     </row>
-    <row r="88" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
     </row>
-    <row r="89" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
     </row>
-    <row r="90" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
     </row>
-    <row r="91" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
     </row>
-    <row r="92" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
     </row>
-    <row r="93" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
     </row>
-    <row r="94" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B94" s="8"/>
     </row>
-    <row r="95" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
     </row>
-    <row r="96" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
     </row>
-    <row r="97" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
     </row>
-    <row r="98" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
     </row>
-    <row r="100" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
     </row>
-    <row r="101" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
     </row>
-    <row r="102" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B102" s="7"/>
     </row>
-    <row r="103" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
     </row>
-    <row r="104" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
     </row>
-    <row r="105" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B105" s="7"/>
     </row>
-    <row r="106" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
     </row>
-    <row r="107" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B107" s="7"/>
     </row>
-    <row r="108" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
     </row>
-    <row r="109" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
     </row>
-    <row r="110" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
     </row>
-    <row r="111" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
     </row>
-    <row r="112" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B113" s="5"/>
     </row>
-    <row r="114" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="6"/>
     </row>
-    <row r="115" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B118" s="8"/>
     </row>
-    <row r="119" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B122" s="8"/>
     </row>
-    <row r="123" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B127" s="5"/>
     </row>
-    <row r="128" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
     </row>
-    <row r="129" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B129" s="7"/>
     </row>
-    <row r="130" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B130" s="7"/>
     </row>
-    <row r="131" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B131" s="7"/>
     </row>
-    <row r="132" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B132" s="8"/>
     </row>
-    <row r="133" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B133" s="7"/>
     </row>
-    <row r="134" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B134" s="7"/>
     </row>
-    <row r="135" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B135" s="8"/>
     </row>
-    <row r="136" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B136" s="7"/>
     </row>
-    <row r="137" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:2" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B137" s="7"/>
     </row>
   </sheetData>
@@ -1399,89 +1402,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452D7F16-F95A-4A09-9182-4E3DDA320238}">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
